--- a/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -4,30 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="央视" sheetId="1" r:id="rId1"/>
     <sheet name="卫视" sheetId="3" r:id="rId2"/>
     <sheet name="上海" sheetId="4" r:id="rId3"/>
-    <sheet name="地方" sheetId="6" r:id="rId4"/>
-    <sheet name="娱乐" sheetId="7" r:id="rId5"/>
-    <sheet name="体育" sheetId="8" r:id="rId6"/>
+    <sheet name="湖南" sheetId="9" r:id="rId4"/>
+    <sheet name="地方" sheetId="6" r:id="rId5"/>
+    <sheet name="娱乐" sheetId="7" r:id="rId6"/>
+    <sheet name="体育" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">地方!$A$1:$D$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">地方!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">湖南!$A$1:$D$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">上海!$A$1:$D$125</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">体育!$A$1:$D$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">体育!$A$1:$D$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$D$353</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$D$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">娱乐!$A$1:$D$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$D$331</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="921">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -2745,6 +2747,62 @@
   </si>
   <si>
     <t>百视通直播-22</t>
+  </si>
+  <si>
+    <t>湖南经视</t>
+  </si>
+  <si>
+    <t>湖南经视</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=6306119848317438256</t>
+  </si>
+  <si>
+    <t>湖南都市</t>
+  </si>
+  <si>
+    <t>湖南电视剧</t>
+  </si>
+  <si>
+    <t>id=4682579636905393407</t>
+  </si>
+  <si>
+    <t>id=8765482907954673867</t>
+  </si>
+  <si>
+    <t>湖南电影</t>
+  </si>
+  <si>
+    <t>id=7884242846753128038</t>
+  </si>
+  <si>
+    <t>湖南娱乐</t>
+  </si>
+  <si>
+    <t>id=6427893650335440392</t>
+  </si>
+  <si>
+    <t>湖南国际</t>
+  </si>
+  <si>
+    <t>id=5015828848322021526</t>
+  </si>
+  <si>
+    <t>湖南先锋乒羽</t>
+  </si>
+  <si>
+    <t>id=4886720949268374180</t>
+  </si>
+  <si>
+    <t>id=6307875884530512195</t>
+  </si>
+  <si>
+    <t>湖南爱晚</t>
+  </si>
+  <si>
+    <t>id=4886720949268374180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13475,11 +13533,549 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection sqref="A1:D64"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D37"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -13953,7 +14549,7 @@
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>29</v>
@@ -13962,12 +14558,12 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>29</v>
@@ -13976,12 +14572,12 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>29</v>
@@ -13990,12 +14586,12 @@
         <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>29</v>
@@ -14004,12 +14600,12 @@
         <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>29</v>
@@ -14018,12 +14614,12 @@
         <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -14032,367 +14628,87 @@
         <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>538</v>
+        <v>751</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>538</v>
+        <v>751</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>668</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>105</v>
+        <v>298</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A54" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D55" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A57" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A58" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A60" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A62" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A63" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D63" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" t="s">
         <v>358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D64"/>
+  <autoFilter ref="A1:D44"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D331"/>
   <sheetViews>
@@ -19049,7 +19365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D165"/>
   <sheetViews>
